--- a/Queries/Populate Users GHADC.xlsx
+++ b/Queries/Populate Users GHADC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="6864"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>060001</t>
   </si>
@@ -142,6 +142,51 @@
   </si>
   <si>
     <t>Fabian Marak</t>
+  </si>
+  <si>
+    <t>fenzcra@gmail.com</t>
+  </si>
+  <si>
+    <t>Elections#1243</t>
+  </si>
+  <si>
+    <t>Elections#1247</t>
+  </si>
+  <si>
+    <t>Elections#1252</t>
+  </si>
+  <si>
+    <t>Elections#3465</t>
+  </si>
+  <si>
+    <t>Elections#6621</t>
+  </si>
+  <si>
+    <t>Elections#1754</t>
+  </si>
+  <si>
+    <t>Elections#1261</t>
+  </si>
+  <si>
+    <t>Fenz@3325</t>
+  </si>
+  <si>
+    <t>Deramun@3325</t>
+  </si>
+  <si>
+    <t>Regarding GHADC - Electoral Roll Management System</t>
+  </si>
+  <si>
+    <t>1d4f3542a66c23f57a636ec9496b1dca8f44e3e8d7c1dde975e64da247ae0c3b</t>
+  </si>
+  <si>
+    <t>e2620ba7ae99ec8fd732d26e0285180344d6721bf4e09faea6e0b11f4950b6b1</t>
+  </si>
+  <si>
+    <t>89ce6094a99b207adfc019b5e8b0408409314820aefbe00e662fa5bbf9cac174</t>
+  </si>
+  <si>
+    <t>Fenzra</t>
   </si>
 </sst>
 </file>
@@ -210,7 +255,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -235,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,28 +586,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="3"/>
     <col min="9" max="9" width="14.44140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="7"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="11" max="11" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.21875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -587,7 +636,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -600,7 +649,7 @@
       <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -627,8 +676,22 @@
         <f t="shared" ref="J2" si="0">" INSERT INTO USERS.USEROFFICES VALUES (" &amp; A2 &amp; ",'" &amp; B2 &amp; "'," &amp; A2 &amp; ");"</f>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (101,'060001',101);</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f>"Dear " &amp; D2 &amp; ", The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  " &amp; E2 &amp; " and Your password is : "&amp; K2 &amp; "  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you "</f>
+        <v xml:space="preserve">Dear Jackie Marak, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  jmarak188@gmail.com and Your password is : Elections#1243  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M2" s="9" t="str">
+        <f>"UPDATE USERS.USERACCOUNTS SET PASSWORD = '" &amp; F2 &amp; "' WHERE USERNAME='" &amp; E2 &amp; "';"</f>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='jmarak188@gmail.com';</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>102</v>
@@ -668,10 +731,21 @@
         <f t="shared" ref="J3:J11" si="2">" INSERT INTO USERS.USEROFFICES VALUES (" &amp; A3 &amp; ",'" &amp; B3 &amp; "'," &amp; A3 &amp; ");"</f>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (102,'060001',102);</v>
       </c>
+      <c r="K3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L11" si="3">"Dear " &amp; D3 &amp; ", The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  " &amp; E3 &amp; " and Your password is : "&amp; K3 &amp; "  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you "</f>
+        <v xml:space="preserve">Dear Swarup Banai, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  swarup.banai@gmail.com and Your password is : Elections#3465  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M3" s="9" t="str">
+        <f t="shared" ref="M3:M11" si="4">"UPDATE USERS.USERACCOUNTS SET PASSWORD = '" &amp; F3 &amp; "' WHERE USERNAME='" &amp; E3 &amp; "';"</f>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='swarup.banai@gmail.com';</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A11" si="3">A3+1</f>
+        <f t="shared" ref="A4:A11" si="5">A3+1</f>
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -683,7 +757,7 @@
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -703,10 +777,21 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (103,'060002',103);</v>
       </c>
+      <c r="K4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Fabian Marak, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  febianchmarak@gmail.com and Your password is : Elections#6621  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M4" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='febianchmarak@gmail.com';</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -739,10 +824,19 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (104,'060003',104);</v>
       </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear B, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  060003@gmail.com and Your password is :   PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M5" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='060003@gmail.com';</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -774,10 +868,21 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (105,'070001',105);</v>
       </c>
+      <c r="K6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Tangman Ch Sangma, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  tangmanelection@gmail.com and Your password is : Elections#1247  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='tangmanelection@gmail.com';</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -793,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3">
         <v>1234567821</v>
@@ -803,16 +908,27 @@
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (106,'Elimer M Marak','elim.marak@gmail.com','f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8','1234567821','Y','SYSTEM ENGINEER, ELECTIONS');</v>
+        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (106,'Elimer M Marak','elim.marak@gmail.com','1d4f3542a66c23f57a636ec9496b1dca8f44e3e8d7c1dde975e64da247ae0c3b','1234567821','Y','SYSTEM ENGINEER, ELECTIONS');</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (106,'070001',106);</v>
       </c>
+      <c r="K7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Elimer M Marak, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  elim.marak@gmail.com and Your password is : Elections#1754  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = '1d4f3542a66c23f57a636ec9496b1dca8f44e3e8d7c1dde975e64da247ae0c3b' WHERE USERNAME='elim.marak@gmail.com';</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -829,7 +945,7 @@
         <v>070002@gmail.com</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G8" s="3">
         <v>1234567822</v>
@@ -839,16 +955,27 @@
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (107,'A','070002@gmail.com','f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8','1234567822','Y','SYSTEM ENGINEER, ELECTIONS');</v>
+        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (107,'A','070002@gmail.com','1d4f3542a66c23f57a636ec9496b1dca8f44e3e8d7c1dde975e64da247ae0c3b','1234567822','Y','SYSTEM ENGINEER, ELECTIONS');</v>
       </c>
       <c r="J8" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (107,'070002',107);</v>
       </c>
+      <c r="K8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear A, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  070002@gmail.com and Your password is : Elections#1261  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = '1d4f3542a66c23f57a636ec9496b1dca8f44e3e8d7c1dde975e64da247ae0c3b' WHERE USERNAME='070002@gmail.com';</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -858,14 +985,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>B9 &amp; "@gmail.com"</f>
-        <v>100001@gmail.com</v>
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G9" s="3">
         <v>1234567825</v>
@@ -875,16 +1001,27 @@
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (108,'A','100001@gmail.com','f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8','1234567825','Y','SYSTEM ENGINEER, ELECTIONS');</v>
+        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (108,'Fenzra','fenzcra@gmail.com','e2620ba7ae99ec8fd732d26e0285180344d6721bf4e09faea6e0b11f4950b6b1','1234567825','Y','SYSTEM ENGINEER, ELECTIONS');</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (108,'100001',108);</v>
       </c>
+      <c r="K9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Fenzra, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  fenzcra@gmail.com and Your password is : Fenz@3325  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'e2620ba7ae99ec8fd732d26e0285180344d6721bf4e09faea6e0b11f4950b6b1' WHERE USERNAME='fenzcra@gmail.com';</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -896,7 +1033,7 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -916,10 +1053,21 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (109,'110011',109);</v>
       </c>
+      <c r="K10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Deramun Ch Momin, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  deramunmomin@gmail.com and Your password is : Deramun@3325  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = 'f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8' WHERE USERNAME='deramunmomin@gmail.com';</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -935,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3">
         <v>1234567828</v>
@@ -945,11 +1093,22 @@
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (110,'Sunny Momin','isiahsunny@gmail.com','f343436417bffc7f75691172bd2fe6060ba3021fef94760aad44cf6099f8abe8','1234567828','Y','SYSTEM ENGINEER, ELECTIONS');</v>
+        <v xml:space="preserve"> INSERT INTO USERS.USERACCOUNTS VALUES (110,'Sunny Momin','isiahsunny@gmail.com','89ce6094a99b207adfc019b5e8b0408409314820aefbe00e662fa5bbf9cac174','1234567828','Y','SYSTEM ENGINEER, ELECTIONS');</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> INSERT INTO USERS.USEROFFICES VALUES (110,'050001',110);</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Dear Sunny Momin, The URL for the online portal for GHADC 2026 is https://personnel.megelections.nic.in/ghadc, Your username is :  isiahsunny@gmail.com and Your password is : Elections#1252  PLEASE LOGIN ONCE AND CLICK ON ELECTORAL ROLL MANAGEMENT LINK , check if the source AC and destination DCC are correctly allocated to you </v>
+      </c>
+      <c r="M11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE USERS.USERACCOUNTS SET PASSWORD = '89ce6094a99b207adfc019b5e8b0408409314820aefbe00e662fa5bbf9cac174' WHERE USERNAME='isiahsunny@gmail.com';</v>
       </c>
     </row>
   </sheetData>
@@ -957,9 +1116,15 @@
     <hyperlink ref="E6" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="K9" r:id="rId6"/>
+    <hyperlink ref="K10" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
